--- a/input/seasia.xlsx
+++ b/input/seasia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjz91/Downloads/Soundings/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjz91/Library/Caches/Cleanup At Startup/Transmit/163CEE40-CD07-4582-867D-CE899C096367/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,38 @@
   </si>
   <si>
     <t>Harbin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHHH Wuhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSAM Xiamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZBHH Hohhot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZBAA Beijing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,6 +482,74 @@
         <v>143</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>114.13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24.48</v>
+      </c>
+      <c r="D5" s="2">
+        <v>118.08</v>
+      </c>
+      <c r="E5" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>40.81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>111.68</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39.93</v>
+      </c>
+      <c r="D7" s="2">
+        <v>116.28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
